--- a/public/excels/Student List.xlsx
+++ b/public/excels/Student List.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -384,7 +384,7 @@
     <col min="2" max="2" customWidth="1" width="13"/>
     <col min="3" max="3" customWidth="1" width="12"/>
     <col min="4" max="4" customWidth="1" width="9"/>
-    <col min="5" max="5" customWidth="1" width="25"/>
+    <col min="5" max="5" customWidth="1" width="30"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -395,7 +395,7 @@
         <v>First Name</v>
       </c>
       <c r="C1" t="str">
-        <v>last Name</v>
+        <v>Last Name</v>
       </c>
       <c r="D1" t="str">
         <v>Gender</v>
@@ -423,24 +423,160 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>BABAIU20001</v>
+        <v>BABAIU19000</v>
       </c>
       <c r="B3" t="str">
-        <v>Bradmore</v>
+        <v>Foat</v>
       </c>
       <c r="C3" t="str">
-        <v>Desiri</v>
+        <v>Hunfredo</v>
       </c>
       <c r="D3" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E3" t="str">
+        <v>hfoat5@usatoday.com</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>BTBTIU20026</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Jako</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Velma</v>
+      </c>
+      <c r="D4" t="str">
         <v>Female</v>
       </c>
-      <c r="E3" t="str">
-        <v>dbradmore6@smugmug.com</v>
+      <c r="E4" t="str">
+        <v>vjako7r@meetup.com</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ITITIU19029</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Jinks</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Hillary</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E5" t="str">
+        <v>hjinks7s@exblog.jp</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>BAFNIU18025</v>
+      </c>
+      <c r="B6" t="str">
+        <v>De Carlo</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Meade</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E6" t="str">
+        <v>mdecarlo7t@ft.com</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>CECEIU18019</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Thieme</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Hollis</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E7" t="str">
+        <v>hthieme7w@ezinearticles.com</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>ITDSIU17022</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Skeldinge</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Jacques</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E8" t="str">
+        <v>jskeldinge7x@blogger.com</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>BABAIU20019</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Mapson</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Bevan</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E9" t="str">
+        <v>bmapson7y@google.com.au</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>ITITIU20030</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Gidney</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Willie</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E10" t="str">
+        <v>wgidney7z@123-reg.co.uk</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>ITITIU18051</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Pirazzi</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Andeee</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E11" t="str">
+        <v>apirazzifz@blinklist.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/excels/Student List.xlsx
+++ b/public/excels/Student List.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,24 +559,75 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>ITITIU18051</v>
+        <v>ITDSIU20023</v>
       </c>
       <c r="B11" t="str">
-        <v>Pirazzi</v>
+        <v>McFetrich</v>
       </c>
       <c r="C11" t="str">
-        <v>Andeee</v>
+        <v>Kathryne</v>
       </c>
       <c r="D11" t="str">
         <v>Female</v>
       </c>
       <c r="E11" t="str">
+        <v>kmcfetrich81@php.net</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>ITITIU18051</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Pirazzi</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Andeee</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E12" t="str">
         <v>apirazzifz@blinklist.com</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>BTFEIU20054</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Gazey</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Kristina</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E13" t="str">
+        <v>kgazeymo@ehow.com</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>BAFNIU19086</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Thuy</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Linh</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E14" t="str">
+        <v>htlinh@artist.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/excels/Student List.xlsx
+++ b/public/excels/Student List.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -384,7 +384,7 @@
     <col min="2" max="2" customWidth="1" width="13"/>
     <col min="3" max="3" customWidth="1" width="12"/>
     <col min="4" max="4" customWidth="1" width="9"/>
-    <col min="5" max="5" customWidth="1" width="30"/>
+    <col min="5" max="5" customWidth="1" width="21"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -406,228 +406,41 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>CECEIU19000</v>
+        <v>ITDSIU20081</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve">Conkay Hiss </v>
+        <v>CardiB</v>
       </c>
       <c r="C2" t="str">
-        <v>Moise Up</v>
+        <v>WAP</v>
       </c>
       <c r="D2" t="str">
-        <v>Other</v>
+        <v>Female</v>
       </c>
       <c r="E2" t="str">
-        <v>mconkay4@google.com</v>
+        <v>CardiB@WAP.com</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>BABAIU19000</v>
+        <v>CECEIU4298</v>
       </c>
       <c r="B3" t="str">
-        <v>Foat</v>
+        <v>nguyen duy</v>
       </c>
       <c r="C3" t="str">
-        <v>Hunfredo</v>
+        <v>khang</v>
       </c>
       <c r="D3" t="str">
         <v>Male</v>
       </c>
       <c r="E3" t="str">
-        <v>hfoat5@usatoday.com</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>BTBTIU20026</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Jako</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Velma</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Female</v>
-      </c>
-      <c r="E4" t="str">
-        <v>vjako7r@meetup.com</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ITITIU19029</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Jinks</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Hillary</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Male</v>
-      </c>
-      <c r="E5" t="str">
-        <v>hjinks7s@exblog.jp</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>BAFNIU18025</v>
-      </c>
-      <c r="B6" t="str">
-        <v>De Carlo</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Meade</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Female</v>
-      </c>
-      <c r="E6" t="str">
-        <v>mdecarlo7t@ft.com</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>CECEIU18019</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Thieme</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Hollis</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Male</v>
-      </c>
-      <c r="E7" t="str">
-        <v>hthieme7w@ezinearticles.com</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>ITDSIU17022</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Skeldinge</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Jacques</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Male</v>
-      </c>
-      <c r="E8" t="str">
-        <v>jskeldinge7x@blogger.com</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>BABAIU20019</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Mapson</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Bevan</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Male</v>
-      </c>
-      <c r="E9" t="str">
-        <v>bmapson7y@google.com.au</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>ITITIU20030</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Gidney</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Willie</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Female</v>
-      </c>
-      <c r="E10" t="str">
-        <v>wgidney7z@123-reg.co.uk</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>ITDSIU20023</v>
-      </c>
-      <c r="B11" t="str">
-        <v>McFetrich</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Kathryne</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Female</v>
-      </c>
-      <c r="E11" t="str">
-        <v>kmcfetrich81@php.net</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>ITITIU18051</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Pirazzi</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Andeee</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Female</v>
-      </c>
-      <c r="E12" t="str">
-        <v>apirazzifz@blinklist.com</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>BTFEIU20054</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Gazey</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Kristina</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Female</v>
-      </c>
-      <c r="E13" t="str">
-        <v>kgazeymo@ehow.com</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>BAFNIU19086</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Thuy</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Linh</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Female</v>
-      </c>
-      <c r="E14" t="str">
-        <v>htlinh@artist.com</v>
+        <v>duykhang@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>